--- a/report/build/classes/xls/template.xlsx
+++ b/report/build/classes/xls/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micky\Desktop\report 3.0\report 2.0\report\Report\src\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micky\OneDrive\Documentos\GitHub\ReporteDiario\report\src\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD1B22B-0C5A-4BF8-AC1E-2ED7CEFBD39F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612B79D4-A61E-486C-8361-19256C30DCB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -334,10 +334,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_ [$€]* #,##0.00_ ;_ [$€]* \-#,##0.00_ ;_ [$€]* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ [$€]* #,##0.00_ ;_ [$€]* \-#,##0.00_ ;_ [$€]* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -910,7 +910,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="161">
@@ -939,7 +939,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -948,19 +948,19 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -972,7 +972,7 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -981,7 +981,7 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -990,7 +990,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="4" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -999,13 +999,13 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1032,7 +1032,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1041,16 +1041,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1062,22 +1062,22 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1092,7 +1092,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1110,22 +1110,22 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1200,25 +1200,109 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1230,13 +1314,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1245,40 +1326,31 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1296,103 +1368,31 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1795,27 +1795,25 @@
   </sheetPr>
   <dimension ref="B1:M100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65:L65"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="18.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="18.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="1"/>
+    <col min="2" max="2" width="2.86328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.3984375" style="1"/>
     <col min="4" max="4" width="2" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" style="1"/>
-    <col min="6" max="7" width="25.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" style="1"/>
+    <col min="5" max="5" width="18.3984375" style="1"/>
+    <col min="6" max="7" width="25.59765625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.3984375" style="1"/>
     <col min="9" max="9" width="2" style="1" customWidth="1"/>
-    <col min="10" max="12" width="18.42578125" style="1"/>
+    <col min="10" max="12" width="18.3984375" style="1"/>
     <col min="13" max="14" width="2" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="18.42578125" style="1"/>
+    <col min="15" max="16384" width="18.3984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -1829,69 +1827,69 @@
       <c r="L2" s="4"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="6"/>
-      <c r="C3" s="97" t="s">
+      <c r="C3" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="152"/>
+      <c r="L3" s="152"/>
       <c r="M3" s="7"/>
     </row>
-    <row r="4" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="6"/>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
+      <c r="D4" s="152"/>
+      <c r="E4" s="152"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="152"/>
+      <c r="J4" s="152"/>
+      <c r="K4" s="152"/>
+      <c r="L4" s="152"/>
       <c r="M4" s="7"/>
     </row>
-    <row r="5" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="98" t="s">
+    <row r="5" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="99"/>
-      <c r="J5" s="99"/>
-      <c r="K5" s="99"/>
-      <c r="L5" s="99"/>
-      <c r="M5" s="100"/>
-    </row>
-    <row r="6" spans="2:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="101"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="102"/>
-    </row>
-    <row r="7" spans="2:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="C5" s="154"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="154"/>
+      <c r="H5" s="154"/>
+      <c r="I5" s="154"/>
+      <c r="J5" s="154"/>
+      <c r="K5" s="154"/>
+      <c r="L5" s="154"/>
+      <c r="M5" s="155"/>
+    </row>
+    <row r="6" spans="2:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="156"/>
+      <c r="C6" s="152"/>
+      <c r="D6" s="152"/>
+      <c r="E6" s="152"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="152"/>
+      <c r="H6" s="152"/>
+      <c r="I6" s="152"/>
+      <c r="J6" s="152"/>
+      <c r="K6" s="152"/>
+      <c r="L6" s="152"/>
+      <c r="M6" s="157"/>
+    </row>
+    <row r="7" spans="2:13" ht="17.25" x14ac:dyDescent="0.45">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
@@ -1905,7 +1903,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="14"/>
     </row>
-    <row r="8" spans="2:13" ht="18" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="17.25" x14ac:dyDescent="0.45">
       <c r="B8" s="15"/>
       <c r="C8" s="16" t="s">
         <v>3</v>
@@ -1931,7 +1929,7 @@
       <c r="L8" s="20"/>
       <c r="M8" s="23"/>
     </row>
-    <row r="9" spans="2:13" ht="18" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="17.25" x14ac:dyDescent="0.45">
       <c r="B9" s="15"/>
       <c r="C9" s="16" t="s">
         <v>6</v>
@@ -1957,7 +1955,7 @@
       <c r="L9" s="20"/>
       <c r="M9" s="23"/>
     </row>
-    <row r="10" spans="2:13" ht="18" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="17.25" x14ac:dyDescent="0.45">
       <c r="B10" s="15"/>
       <c r="C10" s="16" t="s">
         <v>8</v>
@@ -1983,7 +1981,7 @@
       <c r="L10" s="20"/>
       <c r="M10" s="23"/>
     </row>
-    <row r="11" spans="2:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" ht="17.649999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="25"/>
       <c r="C11" s="26"/>
       <c r="D11" s="27"/>
@@ -1997,7 +1995,7 @@
       <c r="L11" s="29"/>
       <c r="M11" s="31"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B12" s="32"/>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
@@ -2011,15 +2009,15 @@
       <c r="L12" s="33"/>
       <c r="M12" s="34"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B13" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="103" t="s">
+      <c r="C13" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="104"/>
-      <c r="E13" s="105"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="36" t="s">
         <v>12</v>
       </c>
@@ -2029,21 +2027,21 @@
       <c r="H13" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="106" t="s">
+      <c r="I13" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="107"/>
-      <c r="K13" s="107"/>
-      <c r="L13" s="108"/>
+      <c r="J13" s="159"/>
+      <c r="K13" s="159"/>
+      <c r="L13" s="160"/>
       <c r="M13" s="37"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B14" s="35"/>
-      <c r="C14" s="111" t="s">
+      <c r="C14" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="112"/>
-      <c r="E14" s="113"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="84" t="s">
         <v>95</v>
       </c>
@@ -2053,21 +2051,21 @@
       <c r="H14" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="I14" s="114" t="s">
-        <v>95</v>
-      </c>
-      <c r="J14" s="115"/>
-      <c r="K14" s="115"/>
-      <c r="L14" s="116"/>
+      <c r="I14" s="138" t="s">
+        <v>95</v>
+      </c>
+      <c r="J14" s="139"/>
+      <c r="K14" s="139"/>
+      <c r="L14" s="140"/>
       <c r="M14" s="37"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B15" s="35"/>
-      <c r="C15" s="111" t="s">
+      <c r="C15" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="112"/>
-      <c r="E15" s="113"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="84" t="s">
         <v>95</v>
       </c>
@@ -2077,19 +2075,19 @@
       <c r="H15" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="I15" s="117"/>
-      <c r="J15" s="118"/>
-      <c r="K15" s="118"/>
-      <c r="L15" s="119"/>
+      <c r="I15" s="141"/>
+      <c r="J15" s="142"/>
+      <c r="K15" s="142"/>
+      <c r="L15" s="143"/>
       <c r="M15" s="37"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B16" s="35"/>
-      <c r="C16" s="111" t="s">
+      <c r="C16" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="112"/>
-      <c r="E16" s="113"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="84" t="s">
         <v>95</v>
       </c>
@@ -2099,19 +2097,19 @@
       <c r="H16" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="I16" s="120"/>
-      <c r="J16" s="121"/>
-      <c r="K16" s="121"/>
-      <c r="L16" s="122"/>
+      <c r="I16" s="144"/>
+      <c r="J16" s="145"/>
+      <c r="K16" s="145"/>
+      <c r="L16" s="146"/>
       <c r="M16" s="37"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B17" s="35"/>
-      <c r="C17" s="123" t="s">
+      <c r="C17" s="147" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="124"/>
-      <c r="E17" s="125"/>
+      <c r="D17" s="148"/>
+      <c r="E17" s="149"/>
       <c r="F17" s="83" t="s">
         <v>95</v>
       </c>
@@ -2127,7 +2125,7 @@
       <c r="L17" s="40"/>
       <c r="M17" s="37"/>
     </row>
-    <row r="18" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B18" s="35"/>
       <c r="C18" s="41"/>
       <c r="D18" s="41"/>
@@ -2141,15 +2139,15 @@
       <c r="L18" s="42"/>
       <c r="M18" s="37"/>
     </row>
-    <row r="19" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B19" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="103" t="s">
+      <c r="C19" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="104"/>
-      <c r="E19" s="105"/>
+      <c r="D19" s="132"/>
+      <c r="E19" s="133"/>
       <c r="F19" s="36" t="s">
         <v>12</v>
       </c>
@@ -2171,13 +2169,13 @@
       </c>
       <c r="M19" s="37"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B20" s="35"/>
-      <c r="C20" s="111" t="s">
+      <c r="C20" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="112"/>
-      <c r="E20" s="113"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="120"/>
       <c r="F20" s="96">
         <v>12</v>
       </c>
@@ -2199,7 +2197,7 @@
       </c>
       <c r="M20" s="37"/>
     </row>
-    <row r="21" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B21" s="35"/>
       <c r="C21" s="47" t="s">
         <v>27</v>
@@ -2227,7 +2225,7 @@
       </c>
       <c r="M21" s="37"/>
     </row>
-    <row r="22" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B22" s="35"/>
       <c r="C22" s="47" t="s">
         <v>29</v>
@@ -2249,7 +2247,7 @@
       <c r="L22" s="51"/>
       <c r="M22" s="37"/>
     </row>
-    <row r="23" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B23" s="35"/>
       <c r="C23" s="47" t="s">
         <v>30</v>
@@ -2266,14 +2264,14 @@
         <v>95</v>
       </c>
       <c r="I23" s="51"/>
-      <c r="J23" s="126" t="s">
+      <c r="J23" s="150" t="s">
         <v>31</v>
       </c>
-      <c r="K23" s="127"/>
+      <c r="K23" s="151"/>
       <c r="L23" s="51"/>
       <c r="M23" s="37"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B24" s="35"/>
       <c r="C24" s="47" t="s">
         <v>32</v>
@@ -2299,7 +2297,7 @@
       <c r="L24" s="51"/>
       <c r="M24" s="37"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B25" s="35"/>
       <c r="C25" s="47" t="s">
         <v>34</v>
@@ -2325,7 +2323,7 @@
       <c r="L25" s="51"/>
       <c r="M25" s="37"/>
     </row>
-    <row r="26" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B26" s="35"/>
       <c r="C26" s="47" t="s">
         <v>35</v>
@@ -2351,7 +2349,7 @@
       <c r="L26" s="51"/>
       <c r="M26" s="37"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B27" s="35"/>
       <c r="C27" s="47" t="s">
         <v>37</v>
@@ -2368,14 +2366,14 @@
         <v>95</v>
       </c>
       <c r="I27" s="51"/>
-      <c r="J27" s="109" t="s">
+      <c r="J27" s="136" t="s">
         <v>38</v>
       </c>
-      <c r="K27" s="110"/>
+      <c r="K27" s="137"/>
       <c r="L27" s="51"/>
       <c r="M27" s="37"/>
     </row>
-    <row r="28" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B28" s="35"/>
       <c r="C28" s="47" t="s">
         <v>39</v>
@@ -2392,14 +2390,14 @@
         <v>95</v>
       </c>
       <c r="I28" s="51"/>
-      <c r="J28" s="128" t="s">
-        <v>95</v>
-      </c>
-      <c r="K28" s="129"/>
+      <c r="J28" s="129" t="s">
+        <v>95</v>
+      </c>
+      <c r="K28" s="130"/>
       <c r="L28" s="51"/>
       <c r="M28" s="37"/>
     </row>
-    <row r="29" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B29" s="35"/>
       <c r="C29" s="47" t="s">
         <v>40</v>
@@ -2421,7 +2419,7 @@
       <c r="L29" s="55"/>
       <c r="M29" s="37"/>
     </row>
-    <row r="30" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B30" s="35"/>
       <c r="C30" s="47" t="s">
         <v>41</v>
@@ -2438,14 +2436,14 @@
         <v>95</v>
       </c>
       <c r="I30" s="51"/>
-      <c r="J30" s="126" t="s">
+      <c r="J30" s="150" t="s">
         <v>42</v>
       </c>
-      <c r="K30" s="127"/>
+      <c r="K30" s="151"/>
       <c r="L30" s="55"/>
       <c r="M30" s="37"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B31" s="35"/>
       <c r="C31" s="47" t="s">
         <v>43</v>
@@ -2471,7 +2469,7 @@
       <c r="L31" s="55"/>
       <c r="M31" s="37"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B32" s="35"/>
       <c r="C32" s="47" t="s">
         <v>44</v>
@@ -2497,7 +2495,7 @@
       <c r="L32" s="55"/>
       <c r="M32" s="37"/>
     </row>
-    <row r="33" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B33" s="35"/>
       <c r="C33" s="47" t="s">
         <v>45</v>
@@ -2523,7 +2521,7 @@
       <c r="L33" s="55"/>
       <c r="M33" s="37"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B34" s="35"/>
       <c r="C34" s="47" t="s">
         <v>46</v>
@@ -2540,14 +2538,14 @@
         <v>95</v>
       </c>
       <c r="I34" s="55"/>
-      <c r="J34" s="109" t="s">
+      <c r="J34" s="136" t="s">
         <v>38</v>
       </c>
-      <c r="K34" s="110"/>
+      <c r="K34" s="137"/>
       <c r="L34" s="55"/>
       <c r="M34" s="37"/>
     </row>
-    <row r="35" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B35" s="35"/>
       <c r="C35" s="56" t="s">
         <v>47</v>
@@ -2564,14 +2562,14 @@
         <v>95</v>
       </c>
       <c r="I35" s="51"/>
-      <c r="J35" s="128" t="s">
-        <v>95</v>
-      </c>
-      <c r="K35" s="129"/>
+      <c r="J35" s="129" t="s">
+        <v>95</v>
+      </c>
+      <c r="K35" s="130"/>
       <c r="L35" s="51"/>
       <c r="M35" s="37"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B36" s="35"/>
       <c r="C36" s="59"/>
       <c r="D36" s="59"/>
@@ -2585,15 +2583,15 @@
       <c r="L36" s="55"/>
       <c r="M36" s="37"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B37" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="103" t="s">
+      <c r="C37" s="131" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="104"/>
-      <c r="E37" s="105"/>
+      <c r="D37" s="132"/>
+      <c r="E37" s="133"/>
       <c r="F37" s="36" t="s">
         <v>12</v>
       </c>
@@ -2609,7 +2607,7 @@
       <c r="L37" s="62"/>
       <c r="M37" s="37"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B38" s="35"/>
       <c r="C38" s="47" t="s">
         <v>50</v>
@@ -2631,7 +2629,7 @@
       <c r="L38" s="62"/>
       <c r="M38" s="37"/>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B39" s="35"/>
       <c r="C39" s="47" t="s">
         <v>51</v>
@@ -2653,7 +2651,7 @@
       <c r="L39" s="62"/>
       <c r="M39" s="37"/>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B40" s="35"/>
       <c r="C40" s="47" t="s">
         <v>52</v>
@@ -2675,7 +2673,7 @@
       <c r="L40" s="62"/>
       <c r="M40" s="37"/>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B41" s="35"/>
       <c r="C41" s="47" t="s">
         <v>53</v>
@@ -2697,7 +2695,7 @@
       <c r="L41" s="62"/>
       <c r="M41" s="37"/>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B42" s="61"/>
       <c r="C42" s="47" t="s">
         <v>54</v>
@@ -2719,7 +2717,7 @@
       <c r="L42" s="62"/>
       <c r="M42" s="37"/>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B43" s="35"/>
       <c r="C43" s="47" t="s">
         <v>55</v>
@@ -2741,7 +2739,7 @@
       <c r="L43" s="62"/>
       <c r="M43" s="37"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B44" s="35"/>
       <c r="C44" s="47" t="s">
         <v>56</v>
@@ -2763,7 +2761,7 @@
       <c r="L44" s="62"/>
       <c r="M44" s="37"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B45" s="35"/>
       <c r="C45" s="47" t="s">
         <v>57</v>
@@ -2785,7 +2783,7 @@
       <c r="L45" s="62"/>
       <c r="M45" s="37"/>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B46" s="35"/>
       <c r="C46" s="47" t="s">
         <v>58</v>
@@ -2807,7 +2805,7 @@
       <c r="L46" s="62"/>
       <c r="M46" s="37"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B47" s="35"/>
       <c r="C47" s="47" t="s">
         <v>59</v>
@@ -2829,7 +2827,7 @@
       <c r="L47" s="62"/>
       <c r="M47" s="37"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B48" s="35"/>
       <c r="C48" s="47" t="s">
         <v>60</v>
@@ -2851,7 +2849,7 @@
       <c r="L48" s="62"/>
       <c r="M48" s="37"/>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B49" s="35"/>
       <c r="C49" s="47" t="s">
         <v>61</v>
@@ -2873,7 +2871,7 @@
       <c r="L49" s="62"/>
       <c r="M49" s="37"/>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B50" s="35"/>
       <c r="C50" s="47" t="s">
         <v>62</v>
@@ -2895,7 +2893,7 @@
       <c r="L50" s="62"/>
       <c r="M50" s="37"/>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B51" s="35"/>
       <c r="C51" s="47" t="s">
         <v>63</v>
@@ -2917,7 +2915,7 @@
       <c r="L51" s="62"/>
       <c r="M51" s="37"/>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B52" s="35"/>
       <c r="C52" s="47" t="s">
         <v>64</v>
@@ -2939,7 +2937,7 @@
       <c r="L52" s="62"/>
       <c r="M52" s="37"/>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B53" s="35"/>
       <c r="C53" s="47" t="s">
         <v>65</v>
@@ -2961,7 +2959,7 @@
       <c r="L53" s="62"/>
       <c r="M53" s="37"/>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B54" s="35"/>
       <c r="C54" s="47" t="s">
         <v>66</v>
@@ -2983,7 +2981,7 @@
       <c r="L54" s="62"/>
       <c r="M54" s="37"/>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B55" s="35"/>
       <c r="C55" s="47" t="s">
         <v>67</v>
@@ -3005,7 +3003,7 @@
       <c r="L55" s="62"/>
       <c r="M55" s="37"/>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B56" s="35"/>
       <c r="C56" s="79" t="s">
         <v>19</v>
@@ -3027,7 +3025,7 @@
       <c r="L56" s="62"/>
       <c r="M56" s="37"/>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B57" s="35"/>
       <c r="C57" s="41"/>
       <c r="D57" s="41"/>
@@ -3041,15 +3039,15 @@
       <c r="L57" s="55"/>
       <c r="M57" s="37"/>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B58" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="C58" s="103" t="s">
+      <c r="C58" s="131" t="s">
         <v>69</v>
       </c>
-      <c r="D58" s="104"/>
-      <c r="E58" s="105"/>
+      <c r="D58" s="132"/>
+      <c r="E58" s="133"/>
       <c r="F58" s="36" t="s">
         <v>12</v>
       </c>
@@ -3059,17 +3057,17 @@
       <c r="H58" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="I58" s="138" t="s">
+      <c r="I58" s="134" t="s">
         <v>70</v>
       </c>
-      <c r="J58" s="139"/>
-      <c r="K58" s="138" t="s">
+      <c r="J58" s="135"/>
+      <c r="K58" s="134" t="s">
         <v>71</v>
       </c>
-      <c r="L58" s="139"/>
+      <c r="L58" s="135"/>
       <c r="M58" s="37"/>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B59" s="35"/>
       <c r="C59" s="63" t="s">
         <v>47</v>
@@ -3085,17 +3083,17 @@
       <c r="H59" s="82" t="s">
         <v>95</v>
       </c>
-      <c r="I59" s="152" t="s">
-        <v>95</v>
-      </c>
-      <c r="J59" s="153"/>
-      <c r="K59" s="152" t="s">
-        <v>95</v>
-      </c>
-      <c r="L59" s="153"/>
+      <c r="I59" s="102" t="s">
+        <v>95</v>
+      </c>
+      <c r="J59" s="103"/>
+      <c r="K59" s="102" t="s">
+        <v>95</v>
+      </c>
+      <c r="L59" s="103"/>
       <c r="M59" s="37"/>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B60" s="35"/>
       <c r="C60" s="63" t="s">
         <v>49</v>
@@ -3111,17 +3109,17 @@
       <c r="H60" s="82" t="s">
         <v>95</v>
       </c>
-      <c r="I60" s="152" t="s">
-        <v>95</v>
-      </c>
-      <c r="J60" s="153"/>
-      <c r="K60" s="152" t="s">
-        <v>95</v>
-      </c>
-      <c r="L60" s="153"/>
+      <c r="I60" s="102" t="s">
+        <v>95</v>
+      </c>
+      <c r="J60" s="103"/>
+      <c r="K60" s="102" t="s">
+        <v>95</v>
+      </c>
+      <c r="L60" s="103"/>
       <c r="M60" s="37"/>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B61" s="35"/>
       <c r="C61" s="63" t="s">
         <v>72</v>
@@ -3137,23 +3135,23 @@
       <c r="H61" s="82" t="s">
         <v>95</v>
       </c>
-      <c r="I61" s="156" t="s">
-        <v>95</v>
-      </c>
-      <c r="J61" s="157"/>
-      <c r="K61" s="152" t="s">
-        <v>95</v>
-      </c>
-      <c r="L61" s="153"/>
+      <c r="I61" s="104" t="s">
+        <v>95</v>
+      </c>
+      <c r="J61" s="105"/>
+      <c r="K61" s="102" t="s">
+        <v>95</v>
+      </c>
+      <c r="L61" s="103"/>
       <c r="M61" s="37"/>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B62" s="61"/>
-      <c r="C62" s="133" t="s">
+      <c r="C62" s="124" t="s">
         <v>73</v>
       </c>
-      <c r="D62" s="134"/>
-      <c r="E62" s="135"/>
+      <c r="D62" s="125"/>
+      <c r="E62" s="126"/>
       <c r="F62" s="82" t="s">
         <v>95</v>
       </c>
@@ -3163,23 +3161,23 @@
       <c r="H62" s="82" t="s">
         <v>95</v>
       </c>
-      <c r="I62" s="136" t="s">
-        <v>95</v>
-      </c>
-      <c r="J62" s="137"/>
-      <c r="K62" s="136" t="s">
-        <v>95</v>
-      </c>
-      <c r="L62" s="137"/>
+      <c r="I62" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J62" s="99"/>
+      <c r="K62" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="L62" s="99"/>
       <c r="M62" s="37"/>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B63" s="61"/>
-      <c r="C63" s="133" t="s">
+      <c r="C63" s="124" t="s">
         <v>74</v>
       </c>
-      <c r="D63" s="134"/>
-      <c r="E63" s="135"/>
+      <c r="D63" s="125"/>
+      <c r="E63" s="126"/>
       <c r="F63" s="82" t="s">
         <v>95</v>
       </c>
@@ -3189,17 +3187,17 @@
       <c r="H63" s="82" t="s">
         <v>95</v>
       </c>
-      <c r="I63" s="136" t="s">
-        <v>95</v>
-      </c>
-      <c r="J63" s="137"/>
-      <c r="K63" s="136" t="s">
-        <v>95</v>
-      </c>
-      <c r="L63" s="137"/>
+      <c r="I63" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J63" s="99"/>
+      <c r="K63" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="L63" s="99"/>
       <c r="M63" s="37"/>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B64" s="35"/>
       <c r="C64" s="56" t="s">
         <v>75</v>
@@ -3215,55 +3213,55 @@
       <c r="H64" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="I64" s="154" t="s">
-        <v>95</v>
-      </c>
-      <c r="J64" s="155">
+      <c r="I64" s="100" t="s">
+        <v>95</v>
+      </c>
+      <c r="J64" s="101">
         <f>IF(J61=0,0,(J62+J63)/J61)</f>
         <v>0</v>
       </c>
-      <c r="K64" s="154" t="s">
-        <v>95</v>
-      </c>
-      <c r="L64" s="155">
+      <c r="K64" s="100" t="s">
+        <v>95</v>
+      </c>
+      <c r="L64" s="101">
         <f>IF(L61=0,0,(L62+L63)/L61)</f>
         <v>0</v>
       </c>
       <c r="M64" s="37"/>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B65" s="35"/>
       <c r="C65" s="56" t="s">
         <v>76</v>
       </c>
       <c r="D65" s="57"/>
       <c r="E65" s="58"/>
-      <c r="F65" s="158" t="s">
-        <v>95</v>
-      </c>
-      <c r="G65" s="158" t="s">
-        <v>95</v>
-      </c>
-      <c r="H65" s="158" t="s">
-        <v>95</v>
-      </c>
-      <c r="I65" s="159" t="s">
-        <v>95</v>
-      </c>
-      <c r="J65" s="160">
+      <c r="F65" s="97" t="s">
+        <v>95</v>
+      </c>
+      <c r="G65" s="97" t="s">
+        <v>95</v>
+      </c>
+      <c r="H65" s="97" t="s">
+        <v>95</v>
+      </c>
+      <c r="I65" s="127" t="s">
+        <v>95</v>
+      </c>
+      <c r="J65" s="128">
         <f>IF(J59=0,0,J61/J59)</f>
         <v>0</v>
       </c>
-      <c r="K65" s="159" t="s">
-        <v>95</v>
-      </c>
-      <c r="L65" s="160">
+      <c r="K65" s="127" t="s">
+        <v>95</v>
+      </c>
+      <c r="L65" s="128">
         <f>IF(L59=0,0,L61/L59)</f>
         <v>0</v>
       </c>
       <c r="M65" s="37"/>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B66" s="35"/>
       <c r="C66" s="59"/>
       <c r="D66" s="59"/>
@@ -3277,15 +3275,15 @@
       <c r="L66" s="62"/>
       <c r="M66" s="37"/>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B67" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="C67" s="103" t="s">
+      <c r="C67" s="131" t="s">
         <v>78</v>
       </c>
-      <c r="D67" s="104"/>
-      <c r="E67" s="105"/>
+      <c r="D67" s="132"/>
+      <c r="E67" s="133"/>
       <c r="F67" s="36" t="s">
         <v>12</v>
       </c>
@@ -3301,7 +3299,7 @@
       <c r="L67" s="62"/>
       <c r="M67" s="37"/>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B68" s="35"/>
       <c r="C68" s="47" t="s">
         <v>79</v>
@@ -3323,7 +3321,7 @@
       <c r="L68" s="62"/>
       <c r="M68" s="37"/>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B69" s="35"/>
       <c r="C69" s="47" t="s">
         <v>80</v>
@@ -3345,7 +3343,7 @@
       <c r="L69" s="62"/>
       <c r="M69" s="37"/>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B70" s="35"/>
       <c r="C70" s="47" t="s">
         <v>81</v>
@@ -3367,7 +3365,7 @@
       <c r="L70" s="62"/>
       <c r="M70" s="37"/>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B71" s="35"/>
       <c r="C71" s="47" t="s">
         <v>82</v>
@@ -3389,7 +3387,7 @@
       <c r="L71" s="62"/>
       <c r="M71" s="37"/>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B72" s="35"/>
       <c r="C72" s="47" t="s">
         <v>83</v>
@@ -3411,7 +3409,7 @@
       <c r="L72" s="62"/>
       <c r="M72" s="37"/>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B73" s="35"/>
       <c r="C73" s="47" t="s">
         <v>84</v>
@@ -3433,7 +3431,7 @@
       <c r="L73" s="62"/>
       <c r="M73" s="37"/>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B74" s="35"/>
       <c r="C74" s="47" t="s">
         <v>85</v>
@@ -3455,7 +3453,7 @@
       <c r="L74" s="62"/>
       <c r="M74" s="37"/>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B75" s="35"/>
       <c r="C75" s="56" t="s">
         <v>78</v>
@@ -3477,7 +3475,7 @@
       <c r="L75" s="62"/>
       <c r="M75" s="37"/>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B76" s="35"/>
       <c r="C76" s="41"/>
       <c r="D76" s="41"/>
@@ -3491,15 +3489,15 @@
       <c r="L76" s="55"/>
       <c r="M76" s="37"/>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B77" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="C77" s="130" t="s">
+      <c r="C77" s="121" t="s">
         <v>87</v>
       </c>
-      <c r="D77" s="131"/>
-      <c r="E77" s="132"/>
+      <c r="D77" s="122"/>
+      <c r="E77" s="123"/>
       <c r="F77" s="67" t="s">
         <v>12</v>
       </c>
@@ -3515,13 +3513,13 @@
       <c r="L77" s="69"/>
       <c r="M77" s="70"/>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B78" s="35"/>
-      <c r="C78" s="149" t="s">
+      <c r="C78" s="115" t="s">
         <v>89</v>
       </c>
-      <c r="D78" s="150"/>
-      <c r="E78" s="151"/>
+      <c r="D78" s="116"/>
+      <c r="E78" s="117"/>
       <c r="F78" s="94" t="s">
         <v>95</v>
       </c>
@@ -3537,13 +3535,13 @@
       <c r="L78" s="69"/>
       <c r="M78" s="37"/>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B79" s="35"/>
-      <c r="C79" s="149" t="s">
+      <c r="C79" s="115" t="s">
         <v>90</v>
       </c>
-      <c r="D79" s="150"/>
-      <c r="E79" s="151"/>
+      <c r="D79" s="116"/>
+      <c r="E79" s="117"/>
       <c r="F79" s="94" t="s">
         <v>95</v>
       </c>
@@ -3559,13 +3557,13 @@
       <c r="L79" s="69"/>
       <c r="M79" s="37"/>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B80" s="35"/>
-      <c r="C80" s="149" t="s">
+      <c r="C80" s="115" t="s">
         <v>91</v>
       </c>
-      <c r="D80" s="150"/>
-      <c r="E80" s="151"/>
+      <c r="D80" s="116"/>
+      <c r="E80" s="117"/>
       <c r="F80" s="94" t="s">
         <v>95</v>
       </c>
@@ -3581,13 +3579,13 @@
       <c r="L80" s="71"/>
       <c r="M80" s="37"/>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B81" s="35"/>
-      <c r="C81" s="149" t="s">
+      <c r="C81" s="115" t="s">
         <v>92</v>
       </c>
-      <c r="D81" s="150"/>
-      <c r="E81" s="151"/>
+      <c r="D81" s="116"/>
+      <c r="E81" s="117"/>
       <c r="F81" s="94" t="s">
         <v>95</v>
       </c>
@@ -3603,13 +3601,13 @@
       <c r="L81" s="71"/>
       <c r="M81" s="37"/>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B82" s="61"/>
-      <c r="C82" s="111" t="s">
+      <c r="C82" s="118" t="s">
         <v>93</v>
       </c>
-      <c r="D82" s="112"/>
-      <c r="E82" s="113"/>
+      <c r="D82" s="119"/>
+      <c r="E82" s="120"/>
       <c r="F82" s="94" t="s">
         <v>95</v>
       </c>
@@ -3625,7 +3623,7 @@
       <c r="L82" s="72"/>
       <c r="M82" s="37"/>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B83" s="35"/>
       <c r="C83" s="56" t="s">
         <v>94</v>
@@ -3647,7 +3645,7 @@
       <c r="L83" s="72"/>
       <c r="M83" s="37"/>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B84" s="35"/>
       <c r="C84" s="73"/>
       <c r="D84" s="73"/>
@@ -3661,7 +3659,7 @@
       <c r="L84" s="72"/>
       <c r="M84" s="37"/>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B85" s="35"/>
       <c r="C85" s="74" t="s">
         <v>15</v>
@@ -3677,207 +3675,207 @@
       <c r="L85" s="42"/>
       <c r="M85" s="37"/>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B86" s="35"/>
-      <c r="C86" s="140" t="s">
-        <v>95</v>
-      </c>
-      <c r="D86" s="141"/>
-      <c r="E86" s="141"/>
-      <c r="F86" s="141"/>
-      <c r="G86" s="141"/>
-      <c r="H86" s="141"/>
-      <c r="I86" s="141"/>
-      <c r="J86" s="141"/>
-      <c r="K86" s="141"/>
-      <c r="L86" s="142"/>
+      <c r="C86" s="106" t="s">
+        <v>95</v>
+      </c>
+      <c r="D86" s="107"/>
+      <c r="E86" s="107"/>
+      <c r="F86" s="107"/>
+      <c r="G86" s="107"/>
+      <c r="H86" s="107"/>
+      <c r="I86" s="107"/>
+      <c r="J86" s="107"/>
+      <c r="K86" s="107"/>
+      <c r="L86" s="108"/>
       <c r="M86" s="37"/>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B87" s="35"/>
-      <c r="C87" s="143"/>
-      <c r="D87" s="144"/>
-      <c r="E87" s="144"/>
-      <c r="F87" s="144"/>
-      <c r="G87" s="144"/>
-      <c r="H87" s="144"/>
-      <c r="I87" s="144"/>
-      <c r="J87" s="144"/>
-      <c r="K87" s="144"/>
-      <c r="L87" s="145"/>
+      <c r="C87" s="109"/>
+      <c r="D87" s="110"/>
+      <c r="E87" s="110"/>
+      <c r="F87" s="110"/>
+      <c r="G87" s="110"/>
+      <c r="H87" s="110"/>
+      <c r="I87" s="110"/>
+      <c r="J87" s="110"/>
+      <c r="K87" s="110"/>
+      <c r="L87" s="111"/>
       <c r="M87" s="37"/>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B88" s="35"/>
-      <c r="C88" s="143"/>
-      <c r="D88" s="144"/>
-      <c r="E88" s="144"/>
-      <c r="F88" s="144"/>
-      <c r="G88" s="144"/>
-      <c r="H88" s="144"/>
-      <c r="I88" s="144"/>
-      <c r="J88" s="144"/>
-      <c r="K88" s="144"/>
-      <c r="L88" s="145"/>
+      <c r="C88" s="109"/>
+      <c r="D88" s="110"/>
+      <c r="E88" s="110"/>
+      <c r="F88" s="110"/>
+      <c r="G88" s="110"/>
+      <c r="H88" s="110"/>
+      <c r="I88" s="110"/>
+      <c r="J88" s="110"/>
+      <c r="K88" s="110"/>
+      <c r="L88" s="111"/>
       <c r="M88" s="37"/>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B89" s="35"/>
-      <c r="C89" s="143"/>
-      <c r="D89" s="144"/>
-      <c r="E89" s="144"/>
-      <c r="F89" s="144"/>
-      <c r="G89" s="144"/>
-      <c r="H89" s="144"/>
-      <c r="I89" s="144"/>
-      <c r="J89" s="144"/>
-      <c r="K89" s="144"/>
-      <c r="L89" s="145"/>
+      <c r="C89" s="109"/>
+      <c r="D89" s="110"/>
+      <c r="E89" s="110"/>
+      <c r="F89" s="110"/>
+      <c r="G89" s="110"/>
+      <c r="H89" s="110"/>
+      <c r="I89" s="110"/>
+      <c r="J89" s="110"/>
+      <c r="K89" s="110"/>
+      <c r="L89" s="111"/>
       <c r="M89" s="37"/>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B90" s="35"/>
-      <c r="C90" s="143"/>
-      <c r="D90" s="144"/>
-      <c r="E90" s="144"/>
-      <c r="F90" s="144"/>
-      <c r="G90" s="144"/>
-      <c r="H90" s="144"/>
-      <c r="I90" s="144"/>
-      <c r="J90" s="144"/>
-      <c r="K90" s="144"/>
-      <c r="L90" s="145"/>
+      <c r="C90" s="109"/>
+      <c r="D90" s="110"/>
+      <c r="E90" s="110"/>
+      <c r="F90" s="110"/>
+      <c r="G90" s="110"/>
+      <c r="H90" s="110"/>
+      <c r="I90" s="110"/>
+      <c r="J90" s="110"/>
+      <c r="K90" s="110"/>
+      <c r="L90" s="111"/>
       <c r="M90" s="37"/>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B91" s="35"/>
-      <c r="C91" s="143"/>
-      <c r="D91" s="144"/>
-      <c r="E91" s="144"/>
-      <c r="F91" s="144"/>
-      <c r="G91" s="144"/>
-      <c r="H91" s="144"/>
-      <c r="I91" s="144"/>
-      <c r="J91" s="144"/>
-      <c r="K91" s="144"/>
-      <c r="L91" s="145"/>
+      <c r="C91" s="109"/>
+      <c r="D91" s="110"/>
+      <c r="E91" s="110"/>
+      <c r="F91" s="110"/>
+      <c r="G91" s="110"/>
+      <c r="H91" s="110"/>
+      <c r="I91" s="110"/>
+      <c r="J91" s="110"/>
+      <c r="K91" s="110"/>
+      <c r="L91" s="111"/>
       <c r="M91" s="37"/>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B92" s="35"/>
-      <c r="C92" s="146"/>
-      <c r="D92" s="147"/>
-      <c r="E92" s="147"/>
-      <c r="F92" s="147"/>
-      <c r="G92" s="147"/>
-      <c r="H92" s="147"/>
-      <c r="I92" s="147"/>
-      <c r="J92" s="147"/>
-      <c r="K92" s="147"/>
-      <c r="L92" s="148"/>
+      <c r="C92" s="112"/>
+      <c r="D92" s="113"/>
+      <c r="E92" s="113"/>
+      <c r="F92" s="113"/>
+      <c r="G92" s="113"/>
+      <c r="H92" s="113"/>
+      <c r="I92" s="113"/>
+      <c r="J92" s="113"/>
+      <c r="K92" s="113"/>
+      <c r="L92" s="114"/>
       <c r="M92" s="37"/>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B93" s="35"/>
-      <c r="C93" s="140" t="s">
-        <v>95</v>
-      </c>
-      <c r="D93" s="141"/>
-      <c r="E93" s="141"/>
-      <c r="F93" s="141"/>
-      <c r="G93" s="141"/>
-      <c r="H93" s="141"/>
-      <c r="I93" s="141"/>
-      <c r="J93" s="141"/>
-      <c r="K93" s="141"/>
-      <c r="L93" s="142"/>
+      <c r="C93" s="106" t="s">
+        <v>95</v>
+      </c>
+      <c r="D93" s="107"/>
+      <c r="E93" s="107"/>
+      <c r="F93" s="107"/>
+      <c r="G93" s="107"/>
+      <c r="H93" s="107"/>
+      <c r="I93" s="107"/>
+      <c r="J93" s="107"/>
+      <c r="K93" s="107"/>
+      <c r="L93" s="108"/>
       <c r="M93" s="37"/>
     </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B94" s="35"/>
-      <c r="C94" s="143"/>
-      <c r="D94" s="144"/>
-      <c r="E94" s="144"/>
-      <c r="F94" s="144"/>
-      <c r="G94" s="144"/>
-      <c r="H94" s="144"/>
-      <c r="I94" s="144"/>
-      <c r="J94" s="144"/>
-      <c r="K94" s="144"/>
-      <c r="L94" s="145"/>
+      <c r="C94" s="109"/>
+      <c r="D94" s="110"/>
+      <c r="E94" s="110"/>
+      <c r="F94" s="110"/>
+      <c r="G94" s="110"/>
+      <c r="H94" s="110"/>
+      <c r="I94" s="110"/>
+      <c r="J94" s="110"/>
+      <c r="K94" s="110"/>
+      <c r="L94" s="111"/>
       <c r="M94" s="37"/>
     </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B95" s="35"/>
-      <c r="C95" s="143"/>
-      <c r="D95" s="144"/>
-      <c r="E95" s="144"/>
-      <c r="F95" s="144"/>
-      <c r="G95" s="144"/>
-      <c r="H95" s="144"/>
-      <c r="I95" s="144"/>
-      <c r="J95" s="144"/>
-      <c r="K95" s="144"/>
-      <c r="L95" s="145"/>
+      <c r="C95" s="109"/>
+      <c r="D95" s="110"/>
+      <c r="E95" s="110"/>
+      <c r="F95" s="110"/>
+      <c r="G95" s="110"/>
+      <c r="H95" s="110"/>
+      <c r="I95" s="110"/>
+      <c r="J95" s="110"/>
+      <c r="K95" s="110"/>
+      <c r="L95" s="111"/>
       <c r="M95" s="37"/>
     </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B96" s="35"/>
-      <c r="C96" s="143"/>
-      <c r="D96" s="144"/>
-      <c r="E96" s="144"/>
-      <c r="F96" s="144"/>
-      <c r="G96" s="144"/>
-      <c r="H96" s="144"/>
-      <c r="I96" s="144"/>
-      <c r="J96" s="144"/>
-      <c r="K96" s="144"/>
-      <c r="L96" s="145"/>
+      <c r="C96" s="109"/>
+      <c r="D96" s="110"/>
+      <c r="E96" s="110"/>
+      <c r="F96" s="110"/>
+      <c r="G96" s="110"/>
+      <c r="H96" s="110"/>
+      <c r="I96" s="110"/>
+      <c r="J96" s="110"/>
+      <c r="K96" s="110"/>
+      <c r="L96" s="111"/>
       <c r="M96" s="37"/>
     </row>
-    <row r="97" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B97" s="35"/>
-      <c r="C97" s="143"/>
-      <c r="D97" s="144"/>
-      <c r="E97" s="144"/>
-      <c r="F97" s="144"/>
-      <c r="G97" s="144"/>
-      <c r="H97" s="144"/>
-      <c r="I97" s="144"/>
-      <c r="J97" s="144"/>
-      <c r="K97" s="144"/>
-      <c r="L97" s="145"/>
+      <c r="C97" s="109"/>
+      <c r="D97" s="110"/>
+      <c r="E97" s="110"/>
+      <c r="F97" s="110"/>
+      <c r="G97" s="110"/>
+      <c r="H97" s="110"/>
+      <c r="I97" s="110"/>
+      <c r="J97" s="110"/>
+      <c r="K97" s="110"/>
+      <c r="L97" s="111"/>
       <c r="M97" s="37"/>
     </row>
-    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B98" s="35"/>
-      <c r="C98" s="143"/>
-      <c r="D98" s="144"/>
-      <c r="E98" s="144"/>
-      <c r="F98" s="144"/>
-      <c r="G98" s="144"/>
-      <c r="H98" s="144"/>
-      <c r="I98" s="144"/>
-      <c r="J98" s="144"/>
-      <c r="K98" s="144"/>
-      <c r="L98" s="145"/>
+      <c r="C98" s="109"/>
+      <c r="D98" s="110"/>
+      <c r="E98" s="110"/>
+      <c r="F98" s="110"/>
+      <c r="G98" s="110"/>
+      <c r="H98" s="110"/>
+      <c r="I98" s="110"/>
+      <c r="J98" s="110"/>
+      <c r="K98" s="110"/>
+      <c r="L98" s="111"/>
       <c r="M98" s="37"/>
     </row>
-    <row r="99" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B99" s="35"/>
-      <c r="C99" s="146"/>
-      <c r="D99" s="147"/>
-      <c r="E99" s="147"/>
-      <c r="F99" s="147"/>
-      <c r="G99" s="147"/>
-      <c r="H99" s="147"/>
-      <c r="I99" s="147"/>
-      <c r="J99" s="147"/>
-      <c r="K99" s="147"/>
-      <c r="L99" s="148"/>
+      <c r="C99" s="112"/>
+      <c r="D99" s="113"/>
+      <c r="E99" s="113"/>
+      <c r="F99" s="113"/>
+      <c r="G99" s="113"/>
+      <c r="H99" s="113"/>
+      <c r="I99" s="113"/>
+      <c r="J99" s="113"/>
+      <c r="K99" s="113"/>
+      <c r="L99" s="114"/>
       <c r="M99" s="37"/>
     </row>
-    <row r="100" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B100" s="75"/>
       <c r="C100" s="76"/>
       <c r="D100" s="76"/>
@@ -3902,20 +3900,24 @@
     <protectedRange password="CF74" sqref="C86:L92" name="Rango7_1_1_1_1_1_1_1_1_1_1_1_1_1_1_3_1"/>
   </protectedRanges>
   <mergeCells count="48">
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="C93:L99"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="C80:E80"/>
-    <mergeCell ref="C81:E81"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="C86:L92"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="I14:L16"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J30:K30"/>
     <mergeCell ref="C77:E77"/>
     <mergeCell ref="C62:E62"/>
     <mergeCell ref="I62:J62"/>
@@ -3932,24 +3934,20 @@
     <mergeCell ref="C67:E67"/>
     <mergeCell ref="K62:L62"/>
     <mergeCell ref="C63:E63"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="I14:L16"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="C4:L4"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B6:M6"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="C93:L99"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="C86:L92"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="I61:J61"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="45" orientation="portrait" r:id="rId1"/>
